--- a/target/classes/Archivos/listaProfesores.xlsx
+++ b/target/classes/Archivos/listaProfesores.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fran1\Desktop\Git\CargarRecursos\src\main\resources\Archivos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E215607F-D9F9-4D95-A497-FFD868AE8072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8745" yWindow="0" windowWidth="11745" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,34 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+  <si>
+    <t>asds</t>
+  </si>
+  <si>
+    <t>dsdsds</t>
+  </si>
+  <si>
+    <t>sdsd</t>
+  </si>
+  <si>
+    <t>dsdsd</t>
+  </si>
+  <si>
+    <t>sds</t>
+  </si>
+  <si>
+    <t>dds</t>
+  </si>
+  <si>
+    <t>dsd</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +362,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/target/classes/Archivos/listaProfesores.xlsx
+++ b/target/classes/Archivos/listaProfesores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fran1\Desktop\Git\CargarRecursos\src\main\resources\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E215607F-D9F9-4D95-A497-FFD868AE8072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319D7182-3C8A-4671-BD75-EE5A380124B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8745" yWindow="0" windowWidth="11745" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,27 +25,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
-  <si>
-    <t>asds</t>
-  </si>
-  <si>
-    <t>dsdsds</t>
-  </si>
-  <si>
-    <t>sdsd</t>
-  </si>
-  <si>
-    <t>dsdsd</t>
-  </si>
-  <si>
-    <t>sds</t>
-  </si>
-  <si>
-    <t>dds</t>
-  </si>
-  <si>
-    <t>dsd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+  <si>
+    <t>clv_usuario</t>
+  </si>
+  <si>
+    <t>nombre_usuario</t>
+  </si>
+  <si>
+    <t>pass_usuario</t>
+  </si>
+  <si>
+    <t>tipo_usuario</t>
+  </si>
+  <si>
+    <t>idcarrera</t>
+  </si>
+  <si>
+    <t>nivel_ads</t>
+  </si>
+  <si>
+    <t>contrato</t>
+  </si>
+  <si>
+    <t>pablo123</t>
+  </si>
+  <si>
+    <t>PROF</t>
+  </si>
+  <si>
+    <t>Pablo Alberto</t>
+  </si>
+  <si>
+    <t>Ing</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>alan123</t>
+  </si>
+  <si>
+    <t>Alan Pablo</t>
+  </si>
+  <si>
+    <t>Dir</t>
   </si>
 </sst>
 </file>
@@ -363,56 +387,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1830476</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1830141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
